--- a/biosteam/units/_humbird2011.xlsx
+++ b/biosteam/units/_humbird2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoelr\OneDrive\Code\biosteam\biosteam\units\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C240B7-3B87-4E92-BAC4-314E481981B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{372411A3-9778-4D30-8869-82C10C152C53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{63BF78FC-F864-42F8-B2BC-FE7291451ECD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10598" windowHeight="6808" xr2:uid="{3188A448-B3F0-4EEE-A6DF-294BE8E476D0}"/>
   </bookViews>
@@ -33,91 +33,91 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
+    <t>CEPCI</t>
+  </si>
+  <si>
+    <t>Cost (USD)</t>
+  </si>
+  <si>
+    <t>Exponent</t>
+  </si>
+  <si>
+    <t>Electricity (kW)</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system</t>
+  </si>
+  <si>
+    <t>Flow rate</t>
+  </si>
+  <si>
+    <t>kg/hr</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Basis</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Installation factor</t>
+  </si>
+  <si>
+    <t>Feed stock handling</t>
+  </si>
+  <si>
+    <t>Mixer</t>
+  </si>
+  <si>
+    <t>Agitator</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank 208</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank 201</t>
+  </si>
+  <si>
+    <t>Dry flow rate</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank 209</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump 203</t>
+  </si>
+  <si>
+    <t>hp2kW</t>
+  </si>
+  <si>
+    <t>Splitter-Flash 204</t>
+  </si>
+  <si>
+    <t>Mixer-Sulfuric acid mixer</t>
+  </si>
+  <si>
+    <t>Mixer-Ammonia mixer 210</t>
+  </si>
+  <si>
     <t>Item</t>
   </si>
   <si>
-    <t>CEPCI</t>
-  </si>
-  <si>
-    <t>Cost (USD)</t>
-  </si>
-  <si>
-    <t>Exponent</t>
-  </si>
-  <si>
-    <t>Electricity (kW)</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system</t>
-  </si>
-  <si>
-    <t>Flow rate</t>
-  </si>
-  <si>
-    <t>kg/hr</t>
-  </si>
-  <si>
-    <t>Tank</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Limit</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Basis</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Installation factor</t>
-  </si>
-  <si>
-    <t>Feed stock handling</t>
-  </si>
-  <si>
-    <t>Mixer</t>
-  </si>
-  <si>
-    <t>Agitator</t>
-  </si>
-  <si>
-    <t>Pump</t>
-  </si>
-  <si>
-    <t>Oligomer conversion tank 208</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank 201</t>
-  </si>
-  <si>
-    <t>Dry flow rate</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank 209</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump 203</t>
-  </si>
-  <si>
-    <t>hp2kW</t>
-  </si>
-  <si>
-    <t>Splitter-Flash 204</t>
-  </si>
-  <si>
-    <t>Mixer-Sulfuric acid mixer</t>
-  </si>
-  <si>
-    <t>Mixer-Ammonia mixer 210</t>
+    <t>Upper bound</t>
   </si>
 </sst>
 </file>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -188,6 +188,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,7 +513,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P11" sqref="M10:P11"/>
+      <selection pane="topRight" activeCell="B6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,40 +538,40 @@
   <sheetData>
     <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
@@ -576,163 +579,163 @@
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
         <v>94697</v>
@@ -785,7 +788,7 @@
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B6" s="8" t="b">
         <f>FALSE</f>
@@ -853,7 +856,7 @@
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
         <v>522</v>
@@ -906,7 +909,7 @@
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="5">
         <v>13329690</v>
@@ -957,7 +960,7 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="5">
         <v>0.6</v>
@@ -1010,7 +1013,7 @@
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5">
         <v>511.32100000000003</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="11" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5">
         <v>1.7</v>
@@ -1161,7 +1164,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.74570000000000003</v>

--- a/biosteam/units/_humbird2011.xlsx
+++ b/biosteam/units/_humbird2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoelr\OneDrive\Code\biosteam\biosteam\units\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{372411A3-9778-4D30-8869-82C10C152C53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{63BF78FC-F864-42F8-B2BC-FE7291451ECD}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{372411A3-9778-4D30-8869-82C10C152C53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EBDD3A30-D0B8-4142-932A-F124C1E37C70}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10598" windowHeight="6808" xr2:uid="{3188A448-B3F0-4EEE-A6DF-294BE8E476D0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t>CEPCI</t>
   </si>
@@ -118,13 +118,57 @@
   </si>
   <si>
     <t>Upper bound</t>
+  </si>
+  <si>
+    <t>Ammonia reacidification tank 224</t>
+  </si>
+  <si>
+    <t>Heat Exchanger</t>
+  </si>
+  <si>
+    <t>HXutility-Pretreatment waste heater</t>
+  </si>
+  <si>
+    <t>Duty</t>
+  </si>
+  <si>
+    <t>Gcal/hr</t>
+  </si>
+  <si>
+    <t>HXutility-Waste Vapor Condenser</t>
+  </si>
+  <si>
+    <t>Hydrolyzate Pump 209</t>
+  </si>
+  <si>
+    <t>Reacidified Hydrolyzate Pump 239</t>
+  </si>
+  <si>
+    <t>Hydrolyzate Solid-Liquid Separator</t>
+  </si>
+  <si>
+    <t>Separator</t>
+  </si>
+  <si>
+    <t>Note Ethanol Fermentor disregarded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,25 +209,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -195,8 +232,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,618 +570,834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3255454-ED67-4995-A34B-027179FB496E}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B6" sqref="A6:B6"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X1" sqref="X1:X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.796875" style="2"/>
-    <col min="14" max="14" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" style="2"/>
+    <col min="5" max="5" width="19.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24" style="2" customWidth="1"/>
-    <col min="17" max="19" width="8.796875" style="2"/>
+    <col min="17" max="17" width="24.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="9" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>94697</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="11">
         <v>1981</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="11">
         <v>3720</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="11">
         <v>136260</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="11">
         <v>83333</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="11">
         <v>292407</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="11">
         <v>252891</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="11">
         <v>252891</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="11">
         <v>252891</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="11">
         <v>264116</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="11">
         <v>264116</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="11">
         <v>264116</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="11">
         <v>410369</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="11">
         <v>410369</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="12">
         <v>157478</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="Q5" s="11">
+        <v>410846</v>
+      </c>
+      <c r="R5" s="11">
+        <v>410369</v>
+      </c>
+      <c r="S5" s="11">
+        <v>-8</v>
+      </c>
+      <c r="T5" s="12">
+        <v>2</v>
+      </c>
+      <c r="U5" s="12">
+        <v>402194</v>
+      </c>
+      <c r="V5" s="12">
+        <v>402195</v>
+      </c>
+      <c r="W5" s="12">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8" t="b">
+      <c r="B6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="b">
+      <c r="C6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="b">
+      <c r="D6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="E6" s="8" t="b">
+      <c r="E6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="b">
+      <c r="F6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="G6" s="5" t="b">
+      <c r="G6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="H6" s="8" t="b">
+      <c r="H6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="I6" s="8" t="b">
+      <c r="I6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J6" s="8" t="b">
+      <c r="J6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K6" s="8" t="b">
+      <c r="K6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L6" s="8" t="b">
+      <c r="L6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="M6" s="8" t="b">
+      <c r="M6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="N6" s="8" t="b">
+      <c r="N6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="O6" s="8" t="b">
+      <c r="O6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="P6" s="8" t="b">
+      <c r="P6" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>522</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="Q6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6">
+        <v>522</v>
+      </c>
+      <c r="C7" s="6">
         <v>551</v>
       </c>
-      <c r="D7" s="5">
-        <v>522</v>
-      </c>
-      <c r="E7" s="5">
-        <v>522</v>
-      </c>
-      <c r="F7" s="5">
-        <v>522</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="D7" s="6">
+        <v>522</v>
+      </c>
+      <c r="E7" s="6">
+        <v>522</v>
+      </c>
+      <c r="F7" s="6">
+        <v>522</v>
+      </c>
+      <c r="G7" s="6">
         <v>551</v>
       </c>
-      <c r="H7" s="5">
-        <v>522</v>
-      </c>
-      <c r="I7" s="5">
-        <v>522</v>
-      </c>
-      <c r="J7" s="5">
-        <v>522</v>
-      </c>
-      <c r="K7" s="5">
-        <v>522</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="H7" s="6">
+        <v>522</v>
+      </c>
+      <c r="I7" s="6">
+        <v>522</v>
+      </c>
+      <c r="J7" s="6">
+        <v>522</v>
+      </c>
+      <c r="K7" s="6">
+        <v>522</v>
+      </c>
+      <c r="L7" s="6">
         <v>551</v>
       </c>
-      <c r="M7" s="5">
-        <v>522</v>
-      </c>
-      <c r="N7" s="5">
-        <v>522</v>
-      </c>
-      <c r="O7" s="5">
-        <v>522</v>
-      </c>
-      <c r="P7" s="7">
-        <v>522</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="M7" s="6">
+        <v>522</v>
+      </c>
+      <c r="N7" s="6">
+        <v>522</v>
+      </c>
+      <c r="O7" s="6">
+        <v>522</v>
+      </c>
+      <c r="P7" s="4">
+        <v>522</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>522</v>
+      </c>
+      <c r="R7" s="6">
+        <v>522</v>
+      </c>
+      <c r="S7" s="6">
+        <v>551</v>
+      </c>
+      <c r="T7" s="4">
+        <v>522</v>
+      </c>
+      <c r="U7" s="4">
+        <v>522</v>
+      </c>
+      <c r="V7" s="4">
+        <v>522</v>
+      </c>
+      <c r="W7" s="4">
+        <v>522</v>
+      </c>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="8">
         <v>13329690</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>6210</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8">
         <v>8000</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <v>6000</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="8">
         <v>19812400</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="8">
         <v>25365</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="8">
         <v>511000</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="8">
         <v>30000</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="8">
         <v>90000</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="8">
         <v>203000</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8">
         <v>90000</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="8">
         <v>236000</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="8">
         <v>21900</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="9">
         <v>5000</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
+        <v>92000</v>
+      </c>
+      <c r="T8" s="8">
+        <v>34000</v>
+      </c>
+      <c r="U8" s="4">
+        <v>22500</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="8">
+        <v>35000000</v>
+      </c>
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>0.6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>0.7</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>0.8</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>0.5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>0.6</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>0.8</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>0.7</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>0.8</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>0.5</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>0.7</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>0.8</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>0.5</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="6">
         <v>0.7</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="6">
         <v>0.5</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="4">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="Q9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="11">
         <v>511.32100000000003</v>
       </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
         <v>5290</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="11">
         <f>125*Sheet2!B1</f>
         <v>93.212500000000006</v>
       </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
         <v>55.9</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="11">
         <v>170</v>
       </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
         <v>55.9</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="11">
         <v>170</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
         <f>10*Sheet2!B1</f>
         <v>7.4570000000000007</v>
       </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <f>20*Sheet2!B1</f>
+        <v>14.914000000000001</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0</v>
+      </c>
+      <c r="S10" s="11">
+        <v>0</v>
+      </c>
+      <c r="T10" s="11">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <f>100*Sheet2!B$1</f>
+        <v>74.570000000000007</v>
+      </c>
+      <c r="V10" s="4">
+        <f>60*Sheet2!B$1</f>
+        <v>44.742000000000004</v>
+      </c>
+      <c r="W10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>1.7</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>1.7</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>1.5</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>2</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>1.7</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>1.5</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="6">
         <v>2</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="6">
         <v>1.5</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="4">
         <v>1</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="Q11" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="R11" s="6">
+        <v>2</v>
+      </c>
+      <c r="S11" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T11" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U11" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V11" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W11" s="6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1141,11 +1418,12 @@
       <c r="A27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1154,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E179C87-29AC-47E4-838E-3354F2B04916}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,6 +1448,11 @@
         <v>0.74570000000000003</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/biosteam/units/_humbird2011.xlsx
+++ b/biosteam/units/_humbird2011.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoelr\OneDrive\Code\biosteam\biosteam\units\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{372411A3-9778-4D30-8869-82C10C152C53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EBDD3A30-D0B8-4142-932A-F124C1E37C70}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{372411A3-9778-4D30-8869-82C10C152C53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{930EA003-EF72-4B14-A68A-FFEF7CB9F2E7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10598" windowHeight="6808" xr2:uid="{3188A448-B3F0-4EEE-A6DF-294BE8E476D0}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="10598" windowHeight="6808" xr2:uid="{3188A448-B3F0-4EEE-A6DF-294BE8E476D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
   <si>
     <t>CEPCI</t>
   </si>
@@ -126,31 +127,46 @@
     <t>Heat Exchanger</t>
   </si>
   <si>
-    <t>HXutility-Pretreatment waste heater</t>
-  </si>
-  <si>
     <t>Duty</t>
   </si>
   <si>
     <t>Gcal/hr</t>
   </si>
   <si>
-    <t>HXutility-Waste Vapor Condenser</t>
-  </si>
-  <si>
     <t>Hydrolyzate Pump 209</t>
   </si>
   <si>
     <t>Reacidified Hydrolyzate Pump 239</t>
   </si>
   <si>
-    <t>Hydrolyzate Solid-Liquid Separator</t>
-  </si>
-  <si>
     <t>Separator</t>
   </si>
   <si>
     <t>Note Ethanol Fermentor disregarded</t>
+  </si>
+  <si>
+    <t>Reactor Volume</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Fermentation-Ethanol Fermentor 300</t>
+  </si>
+  <si>
+    <t>Hydrolyzate Solid-Liquid Separator 205</t>
+  </si>
+  <si>
+    <t>HXutility-Waste Vapor Condenser 201</t>
+  </si>
+  <si>
+    <t>HXutility-Pretreatment waste heater 244</t>
+  </si>
+  <si>
+    <t>Seed Hold Tank 301</t>
+  </si>
+  <si>
+    <t>Fermentation-Seed Fermentor</t>
   </si>
 </sst>
 </file>
@@ -238,14 +254,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -254,6 +268,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -570,11 +590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3255454-ED67-4995-A34B-027179FB496E}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X1" sqref="X1:X11"/>
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,21 +620,24 @@
     <col min="20" max="20" width="27.19921875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.796875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="31.3984375" customWidth="1"/>
+    <col min="27" max="27" width="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
@@ -624,103 +647,114 @@
       <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="7"/>
+      <c r="O1" s="16"/>
       <c r="P1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="7"/>
+      <c r="R1" s="16"/>
       <c r="S1" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="T1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="W1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="4"/>
-    </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="U2" s="4" t="s">
@@ -730,296 +764,356 @@
         <v>17</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="4"/>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="4"/>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="AB4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>94697</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>1981</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>3720</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>136260</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>83333</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>292407</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>252891</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>252891</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>252891</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>264116</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>264116</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>264116</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>410369</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>410369</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <v>157478</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>410846</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="10">
         <v>410369</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="10">
         <v>-8</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="11">
         <v>2</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="11">
         <v>402194</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="11">
         <v>402195</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="11">
         <v>39000</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="X5" s="11">
+        <v>43149</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>40414</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>40414</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>3785.4</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>3785.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6" t="b">
+      <c r="B6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="b">
+      <c r="C6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="b">
+      <c r="D6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="E6" s="6" t="b">
+      <c r="E6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="b">
+      <c r="F6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="G6" s="6" t="b">
+      <c r="G6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="H6" s="6" t="b">
+      <c r="H6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="I6" s="6" t="b">
+      <c r="I6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J6" s="6" t="b">
+      <c r="J6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="b">
+      <c r="K6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L6" s="6" t="b">
+      <c r="L6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="M6" s="6" t="b">
+      <c r="M6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="N6" s="6" t="b">
+      <c r="N6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="O6" s="6" t="b">
+      <c r="O6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="P6" s="6" t="b">
+      <c r="P6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6" t="b">
+      <c r="Q6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7" t="b">
         <v>0</v>
       </c>
       <c r="T6" s="4" t="b">
@@ -1034,64 +1128,78 @@
       <c r="W6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="X6" s="4"/>
-    </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6">
-        <v>522</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="X6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7">
+        <v>522</v>
+      </c>
+      <c r="C7" s="7">
         <v>551</v>
       </c>
-      <c r="D7" s="6">
-        <v>522</v>
-      </c>
-      <c r="E7" s="6">
-        <v>522</v>
-      </c>
-      <c r="F7" s="6">
-        <v>522</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="D7" s="7">
+        <v>522</v>
+      </c>
+      <c r="E7" s="7">
+        <v>522</v>
+      </c>
+      <c r="F7" s="7">
+        <v>522</v>
+      </c>
+      <c r="G7" s="7">
         <v>551</v>
       </c>
-      <c r="H7" s="6">
-        <v>522</v>
-      </c>
-      <c r="I7" s="6">
-        <v>522</v>
-      </c>
-      <c r="J7" s="6">
-        <v>522</v>
-      </c>
-      <c r="K7" s="6">
-        <v>522</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="H7" s="7">
+        <v>522</v>
+      </c>
+      <c r="I7" s="7">
+        <v>522</v>
+      </c>
+      <c r="J7" s="7">
+        <v>522</v>
+      </c>
+      <c r="K7" s="7">
+        <v>522</v>
+      </c>
+      <c r="L7" s="7">
         <v>551</v>
       </c>
-      <c r="M7" s="6">
-        <v>522</v>
-      </c>
-      <c r="N7" s="6">
-        <v>522</v>
-      </c>
-      <c r="O7" s="6">
+      <c r="M7" s="7">
+        <v>522</v>
+      </c>
+      <c r="N7" s="7">
+        <v>522</v>
+      </c>
+      <c r="O7" s="7">
         <v>522</v>
       </c>
       <c r="P7" s="4">
         <v>522</v>
       </c>
-      <c r="Q7" s="6">
-        <v>522</v>
-      </c>
-      <c r="R7" s="6">
-        <v>522</v>
-      </c>
-      <c r="S7" s="6">
+      <c r="Q7" s="7">
+        <v>522</v>
+      </c>
+      <c r="R7" s="7">
+        <v>522</v>
+      </c>
+      <c r="S7" s="7">
         <v>551</v>
       </c>
       <c r="T7" s="4">
@@ -1106,10 +1214,24 @@
       <c r="W7" s="4">
         <v>522</v>
       </c>
-      <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="X7" s="4">
+        <v>522</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>522</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>522</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>522</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="8">
@@ -1142,7 +1264,6 @@
       <c r="K8" s="8">
         <v>203000</v>
       </c>
-      <c r="L8" s="8"/>
       <c r="M8" s="8">
         <v>90000</v>
       </c>
@@ -1176,64 +1297,79 @@
       <c r="W8" s="8">
         <v>35000000</v>
       </c>
-      <c r="X8" s="8"/>
-    </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="X8" s="8">
+        <v>8200</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>439000</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>31800</v>
+      </c>
+      <c r="AA8" s="8">
+        <f>10128000/12</f>
+        <v>844000</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>0.6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>0.7</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>0.8</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>0.5</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>0.6</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>0.8</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>0.7</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>0.8</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <v>0.5</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <v>0.7</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="7">
         <v>0.8</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="7">
         <v>0.5</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="7">
         <v>0.7</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="7">
         <v>0.5</v>
       </c>
       <c r="P9" s="4">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="7">
         <v>0.5</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="7">
         <v>0.7</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="7">
         <v>0.7</v>
       </c>
       <c r="T9" s="4">
@@ -1245,72 +1381,87 @@
       <c r="V9" s="4">
         <v>0.8</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="7">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="X9" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>511.32100000000003</v>
       </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
         <v>5290</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f>125*Sheet2!B1</f>
         <v>93.212500000000006</v>
       </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
         <v>55.9</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>170</v>
       </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
         <v>55.9</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>170</v>
       </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
         <f>10*Sheet2!B1</f>
         <v>7.4570000000000007</v>
       </c>
-      <c r="P10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11">
+      <c r="P10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
         <f>20*Sheet2!B1</f>
         <v>14.914000000000001</v>
       </c>
-      <c r="R10" s="11">
-        <v>0</v>
-      </c>
-      <c r="S10" s="11">
-        <v>0</v>
-      </c>
-      <c r="T10" s="11">
+      <c r="R10" s="10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
         <v>0</v>
       </c>
       <c r="U10" s="4">
@@ -1321,66 +1472,84 @@
         <f>60*Sheet2!B$1</f>
         <v>44.742000000000004</v>
       </c>
-      <c r="W10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="W10" s="10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="10">
+        <f>10*0.7457</f>
+        <v>7.4570000000000007</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="10">
+        <f>15*0.7547</f>
+        <v>11.320500000000001</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="10">
+        <f>30*0.7457</f>
+        <v>22.371000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>1.7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <v>1.7</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <v>1.5</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="7">
         <v>2</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="7">
         <v>1.7</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="7">
         <v>1.5</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="7">
         <v>2</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="7">
         <v>1.5</v>
       </c>
       <c r="P11" s="4">
         <v>1</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="7">
         <v>1.5</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="7">
         <v>2</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="7">
         <v>2.2000000000000002</v>
       </c>
       <c r="T11" s="4">
@@ -1392,11 +1561,26 @@
       <c r="V11" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="7">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X11" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -1418,7 +1602,9 @@
       <c r="A27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="N1:O1"/>
@@ -1431,6 +1617,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750EF3C4-89A4-4732-A5BE-E6BFB0992491}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E179C87-29AC-47E4-838E-3354F2B04916}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1450,7 +1653,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
